--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1892.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1892.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A0275-467C-4A8D-8F68-8C6B31C0D0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EEA9B5-D95B-4428-9C00-894366CA829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1875" windowWidth="18495" windowHeight="22125" activeTab="2" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
+    <workbookView xWindow="90600" yWindow="315" windowWidth="23490" windowHeight="21525" activeTab="1" xr2:uid="{334BE92A-37F0-460E-BD8C-585EA0EF21D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
   <si>
     <t>губ</t>
   </si>
@@ -375,6 +380,24 @@
   </si>
   <si>
     <t>Число смертей на Кавказе указано 288,465</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чу</t>
+  </si>
+  <si>
+    <t>v-d-чж</t>
+  </si>
+  <si>
+    <t>v-d-чр</t>
+  </si>
+  <si>
+    <t>v-d-чу</t>
   </si>
 </sst>
 </file>
@@ -384,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,12 +785,12 @@
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -789,7 +812,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -800,7 +823,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -811,7 +834,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -822,7 +845,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -844,7 +867,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -855,7 +878,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -866,7 +889,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -877,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -888,7 +911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -899,7 +922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -910,7 +933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -921,7 +944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -932,7 +955,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -943,7 +966,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -954,7 +977,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -965,7 +988,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -976,7 +999,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -987,7 +1010,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -998,7 +1021,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1032,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1043,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +1054,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1065,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1076,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1087,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1075,7 +1098,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1109,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1108,7 +1131,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1119,7 +1142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1130,7 +1153,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1141,7 +1164,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1175,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1174,7 +1197,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1208,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1196,7 +1219,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1207,7 +1230,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1218,7 +1241,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1229,7 +1252,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1240,7 +1263,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1274,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1262,7 +1285,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1273,7 +1296,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1307,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -1295,7 +1318,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1306,7 +1329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -1317,7 +1340,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -1328,7 +1351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -1339,7 +1362,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -1350,7 +1373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -1361,7 +1384,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -1372,7 +1395,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1406,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1394,7 +1417,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +1428,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -1416,7 +1439,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -1427,7 +1450,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -1438,7 +1461,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -1449,7 +1472,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1460,7 +1483,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1471,7 +1494,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -1482,7 +1505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -1493,7 +1516,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -1504,7 +1527,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -1515,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -1526,7 +1549,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>107</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -1548,7 +1571,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -1559,7 +1582,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -1570,7 +1593,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -1581,7 +1604,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -1592,7 +1615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -1603,7 +1626,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -1614,7 +1637,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -1636,7 +1659,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -1647,7 +1670,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -1658,7 +1681,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -1669,7 +1692,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -1680,7 +1703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -1691,7 +1714,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -1702,7 +1725,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -1713,7 +1736,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -1724,7 +1747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -1735,7 +1758,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -1746,7 +1769,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -1757,7 +1780,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
@@ -1768,7 +1791,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -1779,7 +1802,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -1790,7 +1813,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -1801,7 +1824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -1823,7 +1846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -1834,7 +1857,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -1845,7 +1868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -1867,7 +1890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -1878,7 +1901,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -1889,7 +1912,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -1900,63 +1923,63 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
@@ -1968,19 +1991,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F7A4D-582A-46D4-B5CA-77D599F7F49F}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2017,26 @@
       <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2050,7 @@
         <v>9524</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2064,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2078,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2092,7 @@
         <v>32864</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2106,7 @@
         <v>78923</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2120,7 @@
         <v>41420</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2134,7 @@
         <v>119327</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2106,7 +2148,7 @@
         <v>40291</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2162,7 @@
         <v>48679</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>40160</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2148,7 +2190,7 @@
         <v>86152</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +2204,7 @@
         <v>99001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2175,13 +2217,37 @@
       <c r="D14" s="4">
         <v>682159</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <f>SUM(B2:B13)</f>
+        <v>20359275</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM(C2:C13)</f>
+        <v>899989</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(D2:D13)</f>
+        <v>682225</v>
+      </c>
+      <c r="J14" s="4">
+        <f>B14-F14</f>
+        <v>3000</v>
+      </c>
+      <c r="K14" s="4">
+        <f>C14-G14</f>
+        <v>-2</v>
+      </c>
+      <c r="L14" s="4">
+        <f>D14-H14</f>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>1096524</v>
+        <v>1096542</v>
       </c>
       <c r="C15" s="4">
         <v>42088</v>
@@ -2190,7 +2256,7 @@
         <v>30040</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2270,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2218,7 +2284,7 @@
         <v>20583</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2232,7 +2298,7 @@
         <v>22226</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2312,7 @@
         <v>21060</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2260,12 +2326,12 @@
         <v>29537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>1277995</v>
+        <v>1277095</v>
       </c>
       <c r="C21" s="4">
         <v>49493</v>
@@ -2274,7 +2340,7 @@
         <v>32558</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2288,7 +2354,7 @@
         <v>17698</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2368,7 @@
         <v>19314</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2316,7 +2382,7 @@
         <v>16356</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2330,7 +2396,7 @@
         <v>16865</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2343,8 +2409,32 @@
       <c r="D26" s="4">
         <v>241320</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <f>SUM(B15:B25)</f>
+        <v>9325283</v>
+      </c>
+      <c r="G26" s="4">
+        <f>SUM(C15:C25)</f>
+        <v>340848</v>
+      </c>
+      <c r="H26" s="4">
+        <f>SUM(D15:D25)</f>
+        <v>241284</v>
+      </c>
+      <c r="J26" s="4">
+        <f>B26-F26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>C26-G26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f>D26-H26</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2448,7 @@
         <v>12786</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2372,7 +2462,7 @@
         <v>25029</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2476,7 @@
         <v>8059</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2399,8 +2489,32 @@
       <c r="D30" s="4">
         <v>45874</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <f>SUM(B27:B29)</f>
+        <v>2417441</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUM(C27:C29)</f>
+        <v>65603</v>
+      </c>
+      <c r="H30" s="4">
+        <f>SUM(D27:D29)</f>
+        <v>45874</v>
+      </c>
+      <c r="J30" s="4">
+        <f>B30-F30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>C30-G30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <f>D30-H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -2414,7 +2528,7 @@
         <v>62599</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2542,7 @@
         <v>63413</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -2442,7 +2556,7 @@
         <v>47759</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -2456,7 +2570,7 @@
         <v>152129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -2470,7 +2584,7 @@
         <v>133061</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -2484,7 +2598,7 @@
         <v>70996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +2612,7 @@
         <v>102498</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -2512,7 +2626,7 @@
         <v>45967</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2526,7 +2640,7 @@
         <v>51993</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2540,7 +2654,7 @@
         <v>97021</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2668,7 @@
         <v>59841</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -2568,7 +2682,7 @@
         <v>27857</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -2582,7 +2696,7 @@
         <v>69315</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -2596,7 +2710,7 @@
         <v>40765</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -2610,7 +2724,7 @@
         <v>14175</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2738,7 @@
         <v>81125</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -2638,7 +2752,7 @@
         <v>80603</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -2652,7 +2766,7 @@
         <v>137765</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2666,7 +2780,7 @@
         <v>89300</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -2680,7 +2794,7 @@
         <v>35130</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -2694,7 +2808,7 @@
         <v>79956</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2708,7 +2822,7 @@
         <v>175453</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -2722,7 +2836,7 @@
         <v>26204</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -2736,7 +2850,7 @@
         <v>25191</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +2864,7 @@
         <v>146516</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -2764,21 +2878,21 @@
         <v>79662</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>1219770</v>
+        <v>1437831</v>
       </c>
       <c r="C57" s="4">
-        <v>56143</v>
+        <v>77633</v>
       </c>
       <c r="D57" s="4">
-        <v>37863</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -2792,7 +2906,7 @@
         <v>37863</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2920,7 @@
         <v>127258</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -2820,7 +2934,7 @@
         <v>60891</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -2834,7 +2948,7 @@
         <v>70585</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -2848,7 +2962,7 @@
         <v>99041</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -2862,7 +2976,7 @@
         <v>93623</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2876,7 +2990,7 @@
         <v>64568</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -2890,7 +3004,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -2904,7 +3018,7 @@
         <v>8416</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -2918,7 +3032,7 @@
         <v>72592</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -2932,7 +3046,7 @@
         <v>34549</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -2945,8 +3059,32 @@
       <c r="D69" s="4">
         <v>2728143</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="4">
+        <f>SUM(B31:B68)</f>
+        <v>65671787</v>
+      </c>
+      <c r="G69" s="4">
+        <f>SUM(C31:C68)</f>
+        <v>2940992</v>
+      </c>
+      <c r="H69" s="4">
+        <f>SUM(D31:D68)</f>
+        <v>2728174</v>
+      </c>
+      <c r="J69" s="4">
+        <f>B69-F69</f>
+        <v>352352</v>
+      </c>
+      <c r="K69" s="4">
+        <f>C69-G69</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <f>D69-H69</f>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
         <v>107</v>
       </c>
@@ -2960,7 +3098,7 @@
         <v>127785</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -2974,7 +3112,7 @@
         <v>3825281</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -2988,7 +3126,7 @@
         <v>25201</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -3002,7 +3140,7 @@
         <v>26646</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -3016,7 +3154,7 @@
         <v>19423</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -3030,7 +3168,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -3044,7 +3182,7 @@
         <v>97961</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -3058,7 +3196,7 @@
         <v>17335</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -3072,7 +3210,7 @@
         <v>47659</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -3086,7 +3224,7 @@
         <v>30672</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -3100,7 +3238,7 @@
         <v>21201</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -3114,7 +3252,7 @@
         <v>21534</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -3127,8 +3265,32 @@
       <c r="D82" s="4">
         <v>288465</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <f>SUM(B72:B81)</f>
+        <v>7863773</v>
+      </c>
+      <c r="G82" s="4">
+        <f>SUM(C72:C81)</f>
+        <v>306951</v>
+      </c>
+      <c r="H82" s="4">
+        <f>SUM(D72:D81)</f>
+        <v>309999</v>
+      </c>
+      <c r="J82" s="4">
+        <f>B82-F82</f>
+        <v>429</v>
+      </c>
+      <c r="K82" s="4">
+        <f>C82-G82</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <f>D82-H82</f>
+        <v>-21534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -3142,7 +3304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -3156,7 +3318,7 @@
         <v>18922</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -3170,7 +3332,7 @@
         <v>13051</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -3184,7 +3346,7 @@
         <v>15763</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -3198,7 +3360,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -3212,7 +3374,7 @@
         <v>91317</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -3226,7 +3388,7 @@
         <v>62123</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -3240,7 +3402,7 @@
         <v>5189</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
@@ -3254,7 +3416,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3267,8 +3429,32 @@
       <c r="D92" s="4">
         <v>209128</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <f>SUM(B83:B91)</f>
+        <v>4856902</v>
+      </c>
+      <c r="G92" s="4">
+        <f>SUM(C83:C91)</f>
+        <v>225852</v>
+      </c>
+      <c r="H92" s="4">
+        <f>SUM(D83:D91)</f>
+        <v>209128</v>
+      </c>
+      <c r="J92" s="4">
+        <f>B92-F92</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <f>C92-G92</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="4">
+        <f>D92-H92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3282,7 +3468,7 @@
         <v>14311</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3296,7 +3482,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3310,7 +3496,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3324,7 +3510,7 @@
         <v>8576</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3338,7 +3524,7 @@
         <v>13735</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3352,7 +3538,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3366,7 +3552,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3380,7 +3566,7 @@
         <v>8844</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3394,7 +3580,7 @@
         <v>6388</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3407,8 +3593,32 @@
       <c r="D102" s="4">
         <v>59493</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="4">
+        <f>SUM(B93:B101)</f>
+        <v>6316280</v>
+      </c>
+      <c r="G102" s="4">
+        <f>SUM(C93:C101)</f>
+        <v>77985</v>
+      </c>
+      <c r="H102" s="4">
+        <f>SUM(D93:D101)</f>
+        <v>59493</v>
+      </c>
+      <c r="J102" s="4">
+        <f>B102-F102</f>
+        <v>-90</v>
+      </c>
+      <c r="K102" s="4">
+        <f>C102-G102</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="4">
+        <f>D102-H102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3422,77 +3632,77 @@
         <v>4403901</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -3506,33 +3716,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E64891-5439-4FFB-A499-228025C227D4}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>112</v>
       </c>
